--- a/data/outputs/management/89.xlsx
+++ b/data/outputs/management/89.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ155"/>
+  <dimension ref="A1:BR155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -710,6 +710,11 @@
       <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 68</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
         </is>
       </c>
     </row>
@@ -893,6 +898,7 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1106,6 +1112,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1323,6 +1330,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1536,6 +1544,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1741,6 +1750,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1950,6 +1960,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2167,6 +2178,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2380,6 +2392,11 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr">
+        <is>
+          <t>21133382</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2593,6 +2610,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2802,6 +2820,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3003,6 +3022,11 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr">
+        <is>
+          <t>4585525</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3212,6 +3236,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3421,6 +3446,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3622,6 +3648,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3835,6 +3862,11 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr">
+        <is>
+          <t>4679113</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4044,6 +4076,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4253,6 +4286,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4458,6 +4492,11 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr">
+        <is>
+          <t>4821861</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4663,6 +4702,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4884,6 +4924,11 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr">
+        <is>
+          <t>4485546</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5085,6 +5130,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5286,6 +5332,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5503,6 +5550,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5704,6 +5752,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5909,6 +5958,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6126,6 +6176,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6335,6 +6386,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6544,6 +6596,11 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr">
+        <is>
+          <t>4267213</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6749,6 +6806,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6950,6 +7008,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7159,6 +7218,7 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7372,6 +7432,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7589,6 +7650,7 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7790,6 +7852,7 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8007,6 +8070,7 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8220,6 +8284,11 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr">
+        <is>
+          <t>4303732</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8437,6 +8506,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8626,6 +8696,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8827,6 +8898,7 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9036,6 +9108,7 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9233,6 +9306,7 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9450,6 +9524,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9655,6 +9730,7 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9864,6 +9940,7 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10081,6 +10158,7 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10278,6 +10356,7 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10491,6 +10570,11 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr">
+        <is>
+          <t>4610077</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10688,6 +10772,11 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr">
+        <is>
+          <t>3926722</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10905,6 +10994,7 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11110,6 +11200,7 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11319,6 +11410,11 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr">
+        <is>
+          <t>3876924</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11528,6 +11624,11 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr">
+        <is>
+          <t>3989064</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11737,6 +11838,7 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -11938,6 +12040,7 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12147,6 +12250,7 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12348,6 +12452,7 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12549,6 +12654,11 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr">
+        <is>
+          <t>3100262</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12750,6 +12860,11 @@
         </is>
       </c>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr">
+        <is>
+          <t>4232327</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -12955,6 +13070,11 @@
         </is>
       </c>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr">
+        <is>
+          <t>3765643</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13156,6 +13276,7 @@
         </is>
       </c>
       <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13365,6 +13486,7 @@
         </is>
       </c>
       <c r="BQ62" t="inlineStr"/>
+      <c r="BR62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13566,6 +13688,7 @@
         </is>
       </c>
       <c r="BQ63" t="inlineStr"/>
+      <c r="BR63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -13783,6 +13906,7 @@
         </is>
       </c>
       <c r="BQ64" t="inlineStr"/>
+      <c r="BR64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -13984,6 +14108,7 @@
         </is>
       </c>
       <c r="BQ65" t="inlineStr"/>
+      <c r="BR65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14185,6 +14310,7 @@
         </is>
       </c>
       <c r="BQ66" t="inlineStr"/>
+      <c r="BR66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14386,6 +14512,11 @@
         </is>
       </c>
       <c r="BQ67" t="inlineStr"/>
+      <c r="BR67" t="inlineStr">
+        <is>
+          <t>4229206</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14563,6 +14694,7 @@
         </is>
       </c>
       <c r="BQ68" t="inlineStr"/>
+      <c r="BR68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -14772,6 +14904,11 @@
         </is>
       </c>
       <c r="BQ69" t="inlineStr"/>
+      <c r="BR69" t="inlineStr">
+        <is>
+          <t>3792280</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -14985,6 +15122,7 @@
         </is>
       </c>
       <c r="BQ70" t="inlineStr"/>
+      <c r="BR70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15186,6 +15324,11 @@
         </is>
       </c>
       <c r="BQ71" t="inlineStr"/>
+      <c r="BR71" t="inlineStr">
+        <is>
+          <t>3814984</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15407,6 +15550,11 @@
         </is>
       </c>
       <c r="BQ72" t="inlineStr"/>
+      <c r="BR72" t="inlineStr">
+        <is>
+          <t>34801262</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -15616,6 +15764,11 @@
         </is>
       </c>
       <c r="BQ73" t="inlineStr"/>
+      <c r="BR73" t="inlineStr">
+        <is>
+          <t>3706091</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -15825,6 +15978,7 @@
         </is>
       </c>
       <c r="BQ74" t="inlineStr"/>
+      <c r="BR74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16026,6 +16180,7 @@
         </is>
       </c>
       <c r="BQ75" t="inlineStr"/>
+      <c r="BR75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16203,6 +16358,11 @@
         </is>
       </c>
       <c r="BQ76" t="inlineStr"/>
+      <c r="BR76" t="inlineStr">
+        <is>
+          <t>3850007</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16400,6 +16560,11 @@
         </is>
       </c>
       <c r="BQ77" t="inlineStr"/>
+      <c r="BR77" t="inlineStr">
+        <is>
+          <t>2742935</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -16605,6 +16770,7 @@
         </is>
       </c>
       <c r="BQ78" t="inlineStr"/>
+      <c r="BR78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -16806,6 +16972,7 @@
         </is>
       </c>
       <c r="BQ79" t="inlineStr"/>
+      <c r="BR79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17015,6 +17182,11 @@
         </is>
       </c>
       <c r="BQ80" t="inlineStr"/>
+      <c r="BR80" t="inlineStr">
+        <is>
+          <t>12974622</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17228,6 +17400,11 @@
         </is>
       </c>
       <c r="BQ81" t="inlineStr"/>
+      <c r="BR81" t="inlineStr">
+        <is>
+          <t>2716897</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -17441,6 +17618,7 @@
         </is>
       </c>
       <c r="BQ82" t="inlineStr"/>
+      <c r="BR82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -17650,6 +17828,7 @@
         </is>
       </c>
       <c r="BQ83" t="inlineStr"/>
+      <c r="BR83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -17859,6 +18038,7 @@
         </is>
       </c>
       <c r="BQ84" t="inlineStr"/>
+      <c r="BR84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18076,6 +18256,7 @@
         </is>
       </c>
       <c r="BQ85" t="inlineStr"/>
+      <c r="BR85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -18281,6 +18462,7 @@
         </is>
       </c>
       <c r="BQ86" t="inlineStr"/>
+      <c r="BR86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -18494,6 +18676,11 @@
         </is>
       </c>
       <c r="BQ87" t="inlineStr"/>
+      <c r="BR87" t="inlineStr">
+        <is>
+          <t>3703298</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -18703,6 +18890,7 @@
         </is>
       </c>
       <c r="BQ88" t="inlineStr"/>
+      <c r="BR88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -18908,6 +19096,7 @@
         </is>
       </c>
       <c r="BQ89" t="inlineStr"/>
+      <c r="BR89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19121,6 +19310,7 @@
         </is>
       </c>
       <c r="BQ90" t="inlineStr"/>
+      <c r="BR90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -19338,6 +19528,7 @@
         </is>
       </c>
       <c r="BQ91" t="inlineStr"/>
+      <c r="BR91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -19555,6 +19746,7 @@
         </is>
       </c>
       <c r="BQ92" t="inlineStr"/>
+      <c r="BR92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -19764,6 +19956,7 @@
         </is>
       </c>
       <c r="BQ93" t="inlineStr"/>
+      <c r="BR93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -19981,6 +20174,7 @@
         </is>
       </c>
       <c r="BQ94" t="inlineStr"/>
+      <c r="BR94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -20190,6 +20384,7 @@
         </is>
       </c>
       <c r="BQ95" t="inlineStr"/>
+      <c r="BR95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -20399,6 +20594,7 @@
         </is>
       </c>
       <c r="BQ96" t="inlineStr"/>
+      <c r="BR96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -20588,6 +20784,7 @@
         </is>
       </c>
       <c r="BQ97" t="inlineStr"/>
+      <c r="BR97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -20805,6 +21002,7 @@
         </is>
       </c>
       <c r="BQ98" t="inlineStr"/>
+      <c r="BR98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -21022,6 +21220,7 @@
         </is>
       </c>
       <c r="BQ99" t="inlineStr"/>
+      <c r="BR99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -21227,6 +21426,7 @@
         </is>
       </c>
       <c r="BQ100" t="inlineStr"/>
+      <c r="BR100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -21444,6 +21644,7 @@
         </is>
       </c>
       <c r="BQ101" t="inlineStr"/>
+      <c r="BR101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -21657,6 +21858,11 @@
         </is>
       </c>
       <c r="BQ102" t="inlineStr"/>
+      <c r="BR102" t="inlineStr">
+        <is>
+          <t>2765583</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -21870,6 +22076,7 @@
         </is>
       </c>
       <c r="BQ103" t="inlineStr"/>
+      <c r="BR103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -22079,6 +22286,7 @@
         </is>
       </c>
       <c r="BQ104" t="inlineStr"/>
+      <c r="BR104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -22288,6 +22496,7 @@
         </is>
       </c>
       <c r="BQ105" t="inlineStr"/>
+      <c r="BR105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -22493,6 +22702,11 @@
         </is>
       </c>
       <c r="BQ106" t="inlineStr"/>
+      <c r="BR106" t="inlineStr">
+        <is>
+          <t>2868467</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -22710,6 +22924,7 @@
         </is>
       </c>
       <c r="BQ107" t="inlineStr"/>
+      <c r="BR107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -22927,6 +23142,7 @@
         </is>
       </c>
       <c r="BQ108" t="inlineStr"/>
+      <c r="BR108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -23136,6 +23352,11 @@
         </is>
       </c>
       <c r="BQ109" t="inlineStr"/>
+      <c r="BR109" t="inlineStr">
+        <is>
+          <t>8226124</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -23349,6 +23570,7 @@
         </is>
       </c>
       <c r="BQ110" t="inlineStr"/>
+      <c r="BR110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -23558,6 +23780,7 @@
         </is>
       </c>
       <c r="BQ111" t="inlineStr"/>
+      <c r="BR111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -23775,6 +23998,7 @@
         </is>
       </c>
       <c r="BQ112" t="inlineStr"/>
+      <c r="BR112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -23976,6 +24200,7 @@
         </is>
       </c>
       <c r="BQ113" t="inlineStr"/>
+      <c r="BR113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -24185,6 +24410,11 @@
         </is>
       </c>
       <c r="BQ114" t="inlineStr"/>
+      <c r="BR114" t="inlineStr">
+        <is>
+          <t>23623887</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -24398,6 +24628,7 @@
         </is>
       </c>
       <c r="BQ115" t="inlineStr"/>
+      <c r="BR115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -24599,6 +24830,7 @@
         </is>
       </c>
       <c r="BQ116" t="inlineStr"/>
+      <c r="BR116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -24796,6 +25028,7 @@
         </is>
       </c>
       <c r="BQ117" t="inlineStr"/>
+      <c r="BR117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -24997,6 +25230,11 @@
         </is>
       </c>
       <c r="BQ118" t="inlineStr"/>
+      <c r="BR118" t="inlineStr">
+        <is>
+          <t>2528240</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -25206,6 +25444,11 @@
         </is>
       </c>
       <c r="BQ119" t="inlineStr"/>
+      <c r="BR119" t="inlineStr">
+        <is>
+          <t>2547563</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -25415,6 +25658,11 @@
         </is>
       </c>
       <c r="BQ120" t="inlineStr"/>
+      <c r="BR120" t="inlineStr">
+        <is>
+          <t>5296779</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -25616,6 +25864,7 @@
         </is>
       </c>
       <c r="BQ121" t="inlineStr"/>
+      <c r="BR121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -25825,6 +26074,7 @@
         </is>
       </c>
       <c r="BQ122" t="inlineStr"/>
+      <c r="BR122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -26026,6 +26276,7 @@
         </is>
       </c>
       <c r="BQ123" t="inlineStr"/>
+      <c r="BR123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -26223,6 +26474,7 @@
         </is>
       </c>
       <c r="BQ124" t="inlineStr"/>
+      <c r="BR124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -26420,6 +26672,7 @@
         </is>
       </c>
       <c r="BQ125" t="inlineStr"/>
+      <c r="BR125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -26629,6 +26882,11 @@
         </is>
       </c>
       <c r="BQ126" t="inlineStr"/>
+      <c r="BR126" t="inlineStr">
+        <is>
+          <t>2378796</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -26834,6 +27092,7 @@
         </is>
       </c>
       <c r="BQ127" t="inlineStr"/>
+      <c r="BR127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -27035,6 +27294,11 @@
         </is>
       </c>
       <c r="BQ128" t="inlineStr"/>
+      <c r="BR128" t="inlineStr">
+        <is>
+          <t>3969071</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -27244,6 +27508,11 @@
         </is>
       </c>
       <c r="BQ129" t="inlineStr"/>
+      <c r="BR129" t="inlineStr">
+        <is>
+          <t>2618089</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -27453,6 +27722,7 @@
         </is>
       </c>
       <c r="BQ130" t="inlineStr"/>
+      <c r="BR130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -27662,6 +27932,7 @@
         </is>
       </c>
       <c r="BQ131" t="inlineStr"/>
+      <c r="BR131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -27871,6 +28142,7 @@
         </is>
       </c>
       <c r="BQ132" t="inlineStr"/>
+      <c r="BR132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -28080,6 +28352,11 @@
         </is>
       </c>
       <c r="BQ133" t="inlineStr"/>
+      <c r="BR133" t="inlineStr">
+        <is>
+          <t>3792272</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -28281,6 +28558,11 @@
         </is>
       </c>
       <c r="BQ134" t="inlineStr"/>
+      <c r="BR134" t="inlineStr">
+        <is>
+          <t>3067513</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -28470,6 +28752,7 @@
         </is>
       </c>
       <c r="BQ135" t="inlineStr"/>
+      <c r="BR135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -28679,6 +28962,7 @@
         </is>
       </c>
       <c r="BQ136" t="inlineStr"/>
+      <c r="BR136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -28884,6 +29168,11 @@
         </is>
       </c>
       <c r="BQ137" t="inlineStr"/>
+      <c r="BR137" t="inlineStr">
+        <is>
+          <t>32734630</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -29085,6 +29374,7 @@
         </is>
       </c>
       <c r="BQ138" t="inlineStr"/>
+      <c r="BR138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -29286,6 +29576,11 @@
         </is>
       </c>
       <c r="BQ139" t="inlineStr"/>
+      <c r="BR139" t="inlineStr">
+        <is>
+          <t>2364130</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -29491,6 +29786,7 @@
         </is>
       </c>
       <c r="BQ140" t="inlineStr"/>
+      <c r="BR140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -29688,6 +29984,11 @@
         </is>
       </c>
       <c r="BQ141" t="inlineStr"/>
+      <c r="BR141" t="inlineStr">
+        <is>
+          <t>3859748</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -29889,6 +30190,7 @@
         </is>
       </c>
       <c r="BQ142" t="inlineStr"/>
+      <c r="BR142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -30090,6 +30392,7 @@
         </is>
       </c>
       <c r="BQ143" t="inlineStr"/>
+      <c r="BR143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -30299,6 +30602,11 @@
         </is>
       </c>
       <c r="BQ144" t="inlineStr"/>
+      <c r="BR144" t="inlineStr">
+        <is>
+          <t>3703661</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -30504,6 +30812,7 @@
         </is>
       </c>
       <c r="BQ145" t="inlineStr"/>
+      <c r="BR145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -30705,6 +31014,11 @@
         </is>
       </c>
       <c r="BQ146" t="inlineStr"/>
+      <c r="BR146" t="inlineStr">
+        <is>
+          <t>3707405</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -30906,6 +31220,11 @@
         </is>
       </c>
       <c r="BQ147" t="inlineStr"/>
+      <c r="BR147" t="inlineStr">
+        <is>
+          <t>2344991</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -31115,6 +31434,11 @@
         </is>
       </c>
       <c r="BQ148" t="inlineStr"/>
+      <c r="BR148" t="inlineStr">
+        <is>
+          <t>2339182</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -31320,6 +31644,7 @@
         </is>
       </c>
       <c r="BQ149" t="inlineStr"/>
+      <c r="BR149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -31521,6 +31846,11 @@
         </is>
       </c>
       <c r="BQ150" t="inlineStr"/>
+      <c r="BR150" t="inlineStr">
+        <is>
+          <t>2379462</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -31722,6 +32052,7 @@
         </is>
       </c>
       <c r="BQ151" t="inlineStr"/>
+      <c r="BR151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -31931,6 +32262,11 @@
         </is>
       </c>
       <c r="BQ152" t="inlineStr"/>
+      <c r="BR152" t="inlineStr">
+        <is>
+          <t>2442800</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -32132,6 +32468,7 @@
         </is>
       </c>
       <c r="BQ153" t="inlineStr"/>
+      <c r="BR153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -32333,6 +32670,7 @@
         </is>
       </c>
       <c r="BQ154" t="inlineStr"/>
+      <c r="BR154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -32542,6 +32880,7 @@
         </is>
       </c>
       <c r="BQ155" t="inlineStr"/>
+      <c r="BR155" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
